--- a/output.xlsx
+++ b/output.xlsx
@@ -1,84 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\Gia_OTA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D009319-D09B-47F8-9766-184CC3BA9A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2024-04-12--2024-04-13" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+  <si>
+    <t>Ten KS</t>
+  </si>
+  <si>
+    <t>Loai Phong</t>
+  </si>
+  <si>
+    <t>So Nguoi</t>
+  </si>
+  <si>
+    <t>gia</t>
+  </si>
+  <si>
+    <t>Ks TTC</t>
+  </si>
   <si>
     <t>Phòng Từ Công Ty Đối Tác</t>
   </si>
   <si>
-    <t xml:space="preserve">
-VND 1.627.938
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Phòng Deluxe Giường Đôi Nhìn Ra Thành Phố
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-VND 1.870.000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Phòng Deluxe Giường Đôi có Ban công và Tầm nhìn ra Sông
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-VND 2.370.000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-TTC Suite Nhìn ra Sông
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-VND 5.410.000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Phòng Deluxe cho 3 Người
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-VND 2.560.000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Phòng cho 3 người có Ban Công
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-VND 3.000.000
-</t>
+    <t>Số người tối đa: 2</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe Giường Đôi Nhìn Ra Thành Phố</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe Giường Đôi có Ban công và Tầm nhìn ra Sông</t>
+  </si>
+  <si>
+    <t>TTC Suite Nhìn ra Sông</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe cho 3 Người</t>
+  </si>
+  <si>
+    <t>Số người tối đa: 3</t>
+  </si>
+  <si>
+    <t>Phòng cho 3 người có Ban Công</t>
+  </si>
+  <si>
+    <t>KS Muong thanh</t>
+  </si>
+  <si>
+    <t>Phòng Giường Đôi</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe 2 Giường Đơn</t>
+  </si>
+  <si>
+    <t>Suite Executive</t>
+  </si>
+  <si>
+    <t>Nesta Hotel Can Tho</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe Giường Đôi Nhìn Ra Sông</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe 2 Giường Đơn Nhìn Ra Thành Phố</t>
+  </si>
+  <si>
+    <t>Suite Junior</t>
+  </si>
+  <si>
+    <t>West Hotel</t>
+  </si>
+  <si>
+    <t>SOJO HOTEL CAN THO</t>
+  </si>
+  <si>
+    <t>Phòng giường đôi</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe Giường Đôi</t>
+  </si>
+  <si>
+    <t>Số người tối đa: 1</t>
+  </si>
+  <si>
+    <t>Van Phat Riverside Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phòng Suite Executive Nhìn Ra Sông</t>
+  </si>
+  <si>
+    <t>Suite Hạng Tổng Thống Nhìn Ra Sông</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,24 +150,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +217,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -193,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -227,9 +286,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -402,59 +462,411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1618212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1870000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2370000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5410000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2560000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1980808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C11" t="s">
         <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>909315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>918500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>909315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>918500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1768140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1786000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1164150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1112225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1475100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1732500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1647000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1475100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1732500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1647000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4056379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4257990</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16839933</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\Gia_OTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\Gia_OTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D009319-D09B-47F8-9766-184CC3BA9A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9359018-ED76-44BF-B218-D8615E213D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-04-12--2024-04-13" sheetId="1" r:id="rId1"/>
+    <sheet name="2024-04-14--2024-04-15" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="83">
   <si>
     <t>Ten KS</t>
   </si>
@@ -34,79 +34,241 @@
     <t>gia</t>
   </si>
   <si>
-    <t>Ks TTC</t>
-  </si>
-  <si>
-    <t>Phòng Từ Công Ty Đối Tác</t>
+    <t>Sheraton Can Tho</t>
+  </si>
+  <si>
+    <t>Phòng 2 Giường Đơn</t>
   </si>
   <si>
     <t>Số người tối đa: 2</t>
   </si>
   <si>
-    <t>Phòng Deluxe Giường Đôi Nhìn Ra Thành Phố</t>
+    <t>Số người tối đa: 3</t>
+  </si>
+  <si>
+    <t>Phòng Có Giường Cỡ King</t>
+  </si>
+  <si>
+    <t>Phòng 2 Giường Đơn Nhìn Ra Sông</t>
+  </si>
+  <si>
+    <t>Phòng Có Giường Cỡ King Nhìn Ra Sông</t>
+  </si>
+  <si>
+    <t>Phòng 2 Giường Đơn Ở Tầng Cao</t>
+  </si>
+  <si>
+    <t>Phòng Có Giường Cỡ King Ở Tầng Cao</t>
+  </si>
+  <si>
+    <t>Phòng Club 2 Giường Đơn - Quyền Sử Dụng Club Lounge</t>
+  </si>
+  <si>
+    <t>Phòng Club Có Giường Cỡ King - Quyền Sử Dụng Club Lounge</t>
+  </si>
+  <si>
+    <t>TTC Hotel - Can Tho</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe 2 Giường Đơn Nhìn Ra Thành Phố</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe 2 Giường Đơn Có Ban Công Và Tầm Nhìn Ra Sông</t>
   </si>
   <si>
     <t>Phòng Deluxe Giường Đôi có Ban công và Tầm nhìn ra Sông</t>
   </si>
   <si>
+    <t>Phòng Đôi Executive Nhìn ra Sông</t>
+  </si>
+  <si>
     <t>TTC Suite Nhìn ra Sông</t>
   </si>
   <si>
     <t>Phòng Deluxe cho 3 Người</t>
   </si>
   <si>
-    <t>Số người tối đa: 3</t>
-  </si>
-  <si>
     <t>Phòng cho 3 người có Ban Công</t>
   </si>
   <si>
-    <t>KS Muong thanh</t>
-  </si>
-  <si>
-    <t>Phòng Giường Đôi</t>
+    <t>Muong Thanh Luxury Can Tho Hotel</t>
   </si>
   <si>
     <t>Phòng Deluxe 2 Giường Đơn</t>
   </si>
   <si>
+    <t>Phòng Deluxe Giường Đôi</t>
+  </si>
+  <si>
     <t>Suite Executive</t>
   </si>
   <si>
+    <t>Azerai Can Tho</t>
+  </si>
+  <si>
+    <t>Phòng Nhìn Ra Vườn</t>
+  </si>
+  <si>
+    <t>Phòng Nhìn ra Hồ</t>
+  </si>
+  <si>
+    <t>Phòng Nhìn Ra Sông</t>
+  </si>
+  <si>
+    <t>Can Tho Ecolodge</t>
+  </si>
+  <si>
+    <t>Con Khuong Resort Can Tho</t>
+  </si>
+  <si>
+    <t>Phòng Tiêu Chuẩn Giường Đôi</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe Giường Đôi Có Ban Công</t>
+  </si>
+  <si>
+    <t>Suite Nhìn ra Hồ bơi</t>
+  </si>
+  <si>
+    <t>Bungalow Nhìn ra vườn</t>
+  </si>
+  <si>
+    <t>Bungalow Nhìn Ra Sông</t>
+  </si>
+  <si>
+    <t>Bungalow Gia Đình</t>
+  </si>
+  <si>
+    <t>Van Phat Riverside Hotel</t>
+  </si>
+  <si>
+    <t>Phòng Superior 2 giường đơn nhìn ra cảnh thành phố</t>
+  </si>
+  <si>
+    <t>Phòng Superior Giường Đôi Nhìn Ra Thành Phố</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe 2 Giường Đơn Nhìn Ra Sông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suite Oriental 2 Giường Đơn Nhìn Ra Sông </t>
+  </si>
+  <si>
+    <t>Suite Junior Nhìn Ra Thành Phố Và Sông</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phòng Suite Executive Nhìn Ra Sông</t>
+  </si>
+  <si>
+    <t>Suite Hạng Tổng Thống Nhìn Ra Sông</t>
+  </si>
+  <si>
+    <t>Phòng Superior 3 người có Tầm nhìn ra quang cảnh Thành phố</t>
+  </si>
+  <si>
+    <t>Victoria Can Tho Resort</t>
+  </si>
+  <si>
+    <t>Phòng Superior Giường Đôi</t>
+  </si>
+  <si>
+    <t>Phòng Superior 2 Giường Đơn</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe Có Giường Cỡ King Và Ban Công</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe 2 giường đơn với ban công</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe Có Giường Cỡ King Với Ban Công Và Tầm Nhìn Ra Hồ Bơi</t>
+  </si>
+  <si>
+    <t>Phòng Deluxe 2 Giường đơn có Ban công và Nhìn ra Hồ bơi</t>
+  </si>
+  <si>
+    <t>Suite</t>
+  </si>
+  <si>
     <t>Nesta Hotel Can Tho</t>
   </si>
   <si>
     <t>Phòng Deluxe Giường Đôi Nhìn Ra Sông</t>
   </si>
   <si>
-    <t>Phòng Deluxe 2 Giường Đơn Nhìn Ra Thành Phố</t>
-  </si>
-  <si>
     <t>Suite Junior</t>
   </si>
   <si>
     <t>West Hotel</t>
   </si>
   <si>
+    <t>Phòng Superior Giường Đơn</t>
+  </si>
+  <si>
+    <t>Số người tối đa: 1</t>
+  </si>
+  <si>
+    <t>Cantho Eco Resort</t>
+  </si>
+  <si>
+    <t>Phòng Gia Đình</t>
+  </si>
+  <si>
+    <t>Bungalow Nhìn Ra Hồ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bungalow Có Giường Cỡ King Nhìn Ra Vườn </t>
+  </si>
+  <si>
+    <t>Số người tối đa: 4</t>
+  </si>
+  <si>
+    <t>Mekong Delta Ricefield Lodge</t>
+  </si>
+  <si>
+    <t>Phòng Superior Có Giường Cỡ Queen</t>
+  </si>
+  <si>
+    <t>Bungalow Deluxe Nhìn Ra Khu Vườn</t>
+  </si>
+  <si>
     <t>SOJO HOTEL CAN THO</t>
   </si>
   <si>
     <t>Phòng giường đôi</t>
   </si>
   <si>
-    <t>Phòng Deluxe Giường Đôi</t>
-  </si>
-  <si>
-    <t>Số người tối đa: 1</t>
-  </si>
-  <si>
-    <t>Van Phat Riverside Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phòng Suite Executive Nhìn Ra Sông</t>
-  </si>
-  <si>
-    <t>Suite Hạng Tổng Thống Nhìn Ra Sông</t>
+    <t>Holiday One Can Tho Hotel</t>
+  </si>
+  <si>
+    <t>Phòng Superior Giường Đôi (Không có Cửa sổ)</t>
+  </si>
+  <si>
+    <t>Phòng Superior 2 Giường Đơn (Không có Cửa sổ)</t>
+  </si>
+  <si>
+    <t>Suite Gia đình Nhìn ra Sông của Thành phố</t>
+  </si>
+  <si>
+    <t>Căn Hộ Chung cư Hưng Phú</t>
+  </si>
+  <si>
+    <t>Căn Hộ 2 Phòng Ngủ</t>
+  </si>
+  <si>
+    <t>Số người tối đa: 5</t>
+  </si>
+  <si>
+    <t>Hotel 365Luxhomeriverside Can Tho</t>
+  </si>
+  <si>
+    <t>Phòng Có Giường Cỡ Queen Với Ban Công</t>
+  </si>
+  <si>
+    <t>Mekong Riverside Homestay</t>
+  </si>
+  <si>
+    <t>Phòng 4 Người</t>
   </si>
 </sst>
 </file>
@@ -154,9 +316,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -463,17 +624,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D73" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -501,8 +660,8 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>1618212</v>
+      <c r="D2" s="1">
+        <v>1950000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
-        <v>1870000</v>
+      <c r="D3" s="1">
+        <v>2350000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,13 +683,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2370000</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2950000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,13 +697,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5410000</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3350000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,13 +711,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2560000</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2650000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,307 +725,2127 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3000000</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2050000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
-        <v>1980808</v>
+      <c r="D8" s="1">
+        <v>2450000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3500000</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3050000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5600000</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3450000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4500000</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2750000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2">
-        <v>909315</v>
+      <c r="D12" s="1">
+        <v>2200000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2">
-        <v>918500</v>
+      <c r="D13" s="1">
+        <v>2600000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>909315</v>
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3200000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2">
-        <v>918500</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3600000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2">
-        <v>1768140</v>
+      <c r="D16" s="1">
+        <v>2900000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2">
-        <v>1786000</v>
+      <c r="D17" s="1">
+        <v>2300000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2">
-        <v>1164150</v>
+      <c r="D18" s="1">
+        <v>2700000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1112225</v>
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3300000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1475100</v>
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3700000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="2">
-        <v>1732500</v>
+      <c r="D21" s="1">
+        <v>3000000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1647000</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2600000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="2">
-        <v>1475100</v>
+      <c r="D23" s="1">
+        <v>3000000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1732500</v>
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3600000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1647000</v>
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4000000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="2">
-        <v>4056379</v>
+      <c r="D26" s="1">
+        <v>3300000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2">
-        <v>4257990</v>
+      <c r="D27" s="1">
+        <v>2700000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3700000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4150000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1385543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5140000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2290000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1976568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2">
-        <v>16839933</v>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6182325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6541920</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6541920</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7709625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="1">
+        <v>7709625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1">
+        <v>8877330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8877330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2431000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2805000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2873000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3315000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1089282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1140000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3120000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1029432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1270500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1270500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1517340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1916640</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2424840</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3586440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1">
+        <v>14520000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1880340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2696273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3184999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>4550000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1">
+        <v>4777499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1">
+        <v>6825000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3184999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1">
+        <v>4550000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1">
+        <v>4777499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1">
+        <v>6825000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3577000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1">
+        <v>5110001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1">
+        <v>5169500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1">
+        <v>7385001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3577000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1">
+        <v>5110001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1">
+        <v>5169500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1">
+        <v>7385001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3822000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="1">
+        <v>5460001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="1">
+        <v>5414500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1">
+        <v>7735001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3822000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5460001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>48</v>
+      </c>
+      <c r="B101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1">
+        <v>5414500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1">
+        <v>7735001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="1">
+        <v>7139999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1">
+        <v>10200000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1">
+        <v>8732499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="1">
+        <v>12475000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="1">
+        <v>909315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="1">
+        <v>918500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1768140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1786000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="1">
+        <v>704700</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1">
+        <v>805950</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="1">
+        <v>805950</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1889550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2617875</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>59</v>
+      </c>
+      <c r="B116" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" s="1">
+        <v>936000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1721455</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" t="s">
+        <v>66</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2240000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1">
+        <v>899000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" t="s">
+        <v>61</v>
+      </c>
+      <c r="D122" s="1">
+        <v>854050</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1286010</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>67</v>
+      </c>
+      <c r="B124" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1578285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>67</v>
+      </c>
+      <c r="B125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1169100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>70</v>
+      </c>
+      <c r="B126" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1110729</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1475100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1732500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>61</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1647000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1475100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1732500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" t="s">
+        <v>61</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1647000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>72</v>
+      </c>
+      <c r="B134" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>50</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1660000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>72</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1710000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>72</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" t="s">
+        <v>66</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2610000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>72</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" t="s">
+        <v>66</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2660000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1094400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1292000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1162800</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1368000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
+      <c r="C149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1231200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" t="s">
+        <v>77</v>
+      </c>
+      <c r="C150" t="s">
+        <v>66</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1444000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>76</v>
+      </c>
+      <c r="B151" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" t="s">
+        <v>78</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1368000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152" t="s">
+        <v>77</v>
+      </c>
+      <c r="C152" t="s">
+        <v>78</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1520000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153" t="s">
+        <v>77</v>
+      </c>
+      <c r="C153" t="s">
+        <v>61</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1216000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>79</v>
+      </c>
+      <c r="B154" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="1">
+        <v>711000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>79</v>
+      </c>
+      <c r="B155" t="s">
+        <v>80</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>79</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>79</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>61</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1026000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>81</v>
+      </c>
+      <c r="B158" t="s">
+        <v>82</v>
+      </c>
+      <c r="C158" t="s">
+        <v>66</v>
+      </c>
+      <c r="D158" s="1">
+        <v>700000</v>
       </c>
     </row>
   </sheetData>
